--- a/prep_and_checklists/FSCO  /PREPLIST_FSCO  _11-25-2025_1.xlsx
+++ b/prep_and_checklists/FSCO  /PREPLIST_FSCO  _11-25-2025_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/FSCO  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03FE096-CEE9-5343-9CAC-ED8FC1080CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6387494-DFC0-2D46-905F-12DD6B867849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="960" windowWidth="30240" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="285">
   <si>
     <t xml:space="preserve">FSCO  , Guests: 150   , 6:00 PM - 10:00 PM   ,Thursday, December 4, 2025  </t>
   </si>
@@ -56,12 +56,6 @@
     <t>Shaved Brussels Sprouts</t>
   </si>
   <si>
-    <t>assorted nuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>brunoise shallots</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>shaved brussels sprouts</t>
   </si>
   <si>
-    <t>beet and white bean spread</t>
-  </si>
-  <si>
     <t>pull cleaned oyster shells</t>
   </si>
   <si>
@@ -98,18 +89,12 @@
     <t>sliced green apple</t>
   </si>
   <si>
-    <t>cut assorted crudite veg</t>
-  </si>
-  <si>
     <t>Corner Bar Burger Sliders</t>
   </si>
   <si>
     <t>toasted almonds</t>
   </si>
   <si>
-    <t>decorative fruits / vegetables</t>
-  </si>
-  <si>
     <t>Fava Bean Hummus</t>
   </si>
   <si>
@@ -125,9 +110,6 @@
     <t>cut brioche buns</t>
   </si>
   <si>
-    <t>Grilled Mushrooms</t>
-  </si>
-  <si>
     <t>fig jam</t>
   </si>
   <si>
@@ -137,9 +119,6 @@
     <t>sliced cheddar</t>
   </si>
   <si>
-    <t>clean / grill mixed mushrooms</t>
-  </si>
-  <si>
     <t>fruit mustard</t>
   </si>
   <si>
@@ -149,39 +128,24 @@
     <t>smoked onion aioli</t>
   </si>
   <si>
-    <t>sheep's milk dumpling</t>
-  </si>
-  <si>
     <t>grapes</t>
   </si>
   <si>
     <t>crumbled feta</t>
   </si>
   <si>
-    <t>picked chervil</t>
-  </si>
-  <si>
     <t>tray-out / cook Beef patties 2oz</t>
   </si>
   <si>
-    <t>sherry vinaigrette / sherry sabayon</t>
-  </si>
-  <si>
     <t>guindillas</t>
   </si>
   <si>
     <t>pickled holland chili</t>
   </si>
   <si>
-    <t>kit-out / make chimichurri</t>
-  </si>
-  <si>
     <t>Flatbread</t>
   </si>
   <si>
-    <t>mebrillo paste</t>
-  </si>
-  <si>
     <t>Lobster Roll</t>
   </si>
   <si>
@@ -200,9 +164,6 @@
     <t>sliced mortadella</t>
   </si>
   <si>
-    <t>sliced red onion</t>
-  </si>
-  <si>
     <t xml:space="preserve">sliced prosciutto </t>
   </si>
   <si>
@@ -305,9 +266,6 @@
     <t xml:space="preserve">arancini </t>
   </si>
   <si>
-    <t>shaved pear</t>
-  </si>
-  <si>
     <t>black truffle cacio e pepe sauce</t>
   </si>
   <si>
@@ -359,24 +317,6 @@
     <t>make / pull ginger scallion relish</t>
   </si>
   <si>
-    <t>slice garlic</t>
-  </si>
-  <si>
-    <t>wash / cut   Swiss chard</t>
-  </si>
-  <si>
-    <t>Grilled Market Fish</t>
-  </si>
-  <si>
-    <t>clean / grill fish</t>
-  </si>
-  <si>
-    <t>green olive gremolata</t>
-  </si>
-  <si>
-    <t>grilled lemon halves</t>
-  </si>
-  <si>
     <t>Grilled Hanger Steak</t>
   </si>
   <si>
@@ -725,12 +665,6 @@
     <t>grated parm</t>
   </si>
   <si>
-    <t>cut / roast squash wedges</t>
-  </si>
-  <si>
-    <t>cut / roast beets</t>
-  </si>
-  <si>
     <t>6-7pm PASSED CANAPES</t>
   </si>
   <si>
@@ -747,13 +681,208 @@
   </si>
   <si>
     <t>chimichurri herbs</t>
+  </si>
+  <si>
+    <t>1 cup</t>
+  </si>
+  <si>
+    <t>1 pint, see AM Prep</t>
+  </si>
+  <si>
+    <t>100 pcs, see AM Prep</t>
+  </si>
+  <si>
+    <t>3 packs</t>
+  </si>
+  <si>
+    <t>1 pint</t>
+  </si>
+  <si>
+    <t>1x recipe, in a piping bag</t>
+  </si>
+  <si>
+    <t>4 DZ, 150 pcs</t>
+  </si>
+  <si>
+    <t>1 x recipe</t>
+  </si>
+  <si>
+    <t>4 lbs</t>
+  </si>
+  <si>
+    <t>2 x loaves</t>
+  </si>
+  <si>
+    <t>1 x squeeze bottle</t>
+  </si>
+  <si>
+    <t>1 quart</t>
+  </si>
+  <si>
+    <t>4 each</t>
+  </si>
+  <si>
+    <t>2lbs</t>
+  </si>
+  <si>
+    <t>1 quart, pull from reach-in freezer</t>
+  </si>
+  <si>
+    <t>75pcs, fried and cut in half</t>
+  </si>
+  <si>
+    <t>1 x recipe, in a piping bag</t>
+  </si>
+  <si>
+    <t>150 pcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 200g tin </t>
+  </si>
+  <si>
+    <t>1 x recipe, in squeeze bottle</t>
+  </si>
+  <si>
+    <t>3 x steak, pull from reach-in freezer</t>
+  </si>
+  <si>
+    <t>2x cups, pull from reach-in freezer</t>
+  </si>
+  <si>
+    <t>2 quarts</t>
+  </si>
+  <si>
+    <t>2x 5lb bags</t>
+  </si>
+  <si>
+    <t>4 cases</t>
+  </si>
+  <si>
+    <t>3lbs</t>
+  </si>
+  <si>
+    <t>1 x bottle</t>
+  </si>
+  <si>
+    <t>cut / roast koginut squash wedges</t>
+  </si>
+  <si>
+    <t>5lbs</t>
+  </si>
+  <si>
+    <t>roat/ cut beets</t>
+  </si>
+  <si>
+    <t>roasted pear</t>
+  </si>
+  <si>
+    <t>8 each</t>
+  </si>
+  <si>
+    <t>1x sourdough boule</t>
+  </si>
+  <si>
+    <t>10 lbs</t>
+  </si>
+  <si>
+    <t>1 x to-go box</t>
+  </si>
+  <si>
+    <t>20 birds, see AM prep</t>
+  </si>
+  <si>
+    <t>2 pints</t>
+  </si>
+  <si>
+    <t>15 packs</t>
+  </si>
+  <si>
+    <t>1 pint each of chopped parsley and cilantro</t>
+  </si>
+  <si>
+    <t>4 pints</t>
+  </si>
+  <si>
+    <t>1 case</t>
+  </si>
+  <si>
+    <t>4 quarts</t>
+  </si>
+  <si>
+    <t>2 packs</t>
+  </si>
+  <si>
+    <t>4 quarts, see AM Prep</t>
+  </si>
+  <si>
+    <t>20lbs</t>
+  </si>
+  <si>
+    <t>4 pints, see AM Prep</t>
+  </si>
+  <si>
+    <t>2 quarts, pull from reach-in freezer</t>
+  </si>
+  <si>
+    <t>sliced caramelized red onion</t>
+  </si>
+  <si>
+    <t>5 lbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5lbs red </t>
+  </si>
+  <si>
+    <t>2lb, see AM Prep</t>
+  </si>
+  <si>
+    <t>4 packs each assorted creackers, taralli, bread sticks</t>
+  </si>
+  <si>
+    <t>2lb each, 4 types</t>
+  </si>
+  <si>
+    <t>2 quart each dried apricot and dried mango</t>
+  </si>
+  <si>
+    <t>cherry tomatoes</t>
+  </si>
+  <si>
+    <t>cut breakfast radish quarters</t>
+  </si>
+  <si>
+    <t>cut carrot batons</t>
+  </si>
+  <si>
+    <t>cut celery batons</t>
+  </si>
+  <si>
+    <t>cut cucumber batons</t>
+  </si>
+  <si>
+    <t>cut tri-color cauliflower</t>
+  </si>
+  <si>
+    <t>cut watermelon radish moons</t>
+  </si>
+  <si>
+    <t>4 packs</t>
+  </si>
+  <si>
+    <t>2 quart</t>
+  </si>
+  <si>
+    <t>6 heads</t>
+  </si>
+  <si>
+    <t>white beand and beet dip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,6 +936,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -863,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -884,6 +1026,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1188,20 +1336,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H73"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="42.83203125" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" customWidth="1"/>
     <col min="7" max="7" width="48.83203125" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
     <col min="10" max="10" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1231,15 +1382,15 @@
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B4" s="8"/>
       <c r="D4" s="7" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="E4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1265,87 +1416,87 @@
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>7</v>
@@ -1353,220 +1504,220 @@
     </row>
     <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>12</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
+      <c r="D16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>12</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>59</v>
+        <v>267</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>12</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D22" s="3" t="s">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>2</v>
@@ -1575,656 +1726,466 @@
     </row>
     <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>12</v>
+        <v>233</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D31" s="3" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>7</v>
+        <v>236</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>50</v>
+        <v>211</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>12</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D40" s="3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>7</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>7</v>
+        <v>237</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>63</v>
+        <v>278</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>12</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>12</v>
+        <v>236</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="D46" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="G45" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>12</v>
+    </row>
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="B55" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="B56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="D59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D60" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D61" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D62" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D63" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="D65" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D66" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="4:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D67" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D68" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="D70" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D71" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D72" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D73" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2238,8 +2199,9 @@
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="53" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -2253,7 +2215,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2263,679 +2225,679 @@
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2944,190 +2906,191 @@
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>